--- a/settimana4/giorni1/esercizio 1 giorni 1.xlsx
+++ b/settimana4/giorni1/esercizio 1 giorni 1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B3AC77-28BC-494F-93F6-DB4EFC17805F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE727F6-41FF-5249-9679-138A28E5925E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="360" windowWidth="19190" windowHeight="9830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="25700" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="esercizio base" sheetId="1" r:id="rId1"/>
@@ -872,22 +872,22 @@
   <dimension ref="B2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.26953125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="6" max="6" width="2.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="5" customFormat="1" ht="15.5" x14ac:dyDescent="0.7">
+    <row r="2" spans="2:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="8" t="s">
         <v>12</v>
@@ -906,7 +906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
@@ -919,10 +919,16 @@
       <c r="E3" s="10">
         <v>2300</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.65">
+      <c r="G3" s="10">
+        <f>C3+D3+E3</f>
+        <v>8470</v>
+      </c>
+      <c r="H3" s="10">
+        <f>(C3+D3+E3)/3</f>
+        <v>2823.3333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
@@ -935,10 +941,16 @@
       <c r="E4" s="10">
         <v>2600</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.65">
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G7" si="0">C4+D4+E4</f>
+        <v>8260</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H7" si="1">(C4+D4+E4)/3</f>
+        <v>2753.3333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
@@ -951,10 +963,16 @@
       <c r="E5" s="10">
         <v>2345</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.65">
+      <c r="G5" s="10">
+        <f t="shared" si="0"/>
+        <v>7790</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
+        <v>2596.6666666666665</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -967,10 +985,16 @@
       <c r="E6" s="10">
         <v>2320</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.65">
+      <c r="G6" s="10">
+        <f t="shared" si="0"/>
+        <v>7794</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
@@ -983,10 +1007,16 @@
       <c r="E7" s="10">
         <v>2500</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.65">
+      <c r="G7" s="10">
+        <f t="shared" si="0"/>
+        <v>8161</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
+        <v>2720.3333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
@@ -996,7 +1026,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>6</v>
       </c>
@@ -1006,7 +1036,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +1046,7 @@
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1056,7 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
@@ -1036,7 +1066,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1046,7 +1076,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.65">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
@@ -1056,27 +1086,45 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="2:8" ht="15.5" x14ac:dyDescent="0.7">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="2:8" ht="15.5" x14ac:dyDescent="0.7">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="2:5" ht="15.5" x14ac:dyDescent="0.7">
+      <c r="C16" s="10">
+        <f>SUM(C3:C14)</f>
+        <v>16090</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" ref="D16:E16" si="2">SUM(D3:D14)</f>
+        <v>12320</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="2"/>
+        <v>12065</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="C17" s="10">
+        <f>AVERAGE(C3:C14)</f>
+        <v>3218</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" ref="D17:E17" si="3">AVERAGE(D3:D14)</f>
+        <v>2464</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="3"/>
+        <v>2413</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
